--- a/data/evaluation/evaluation_Center_Summer_Apples.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Apples.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1106.304281590915</v>
+        <v>1064.66122737438</v>
       </c>
       <c r="C4" t="n">
-        <v>2313464.522921699</v>
+        <v>2226619.223265221</v>
       </c>
       <c r="D4" t="n">
-        <v>1521.007732696221</v>
+        <v>1492.186055177176</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1935024059222697</v>
+        <v>0.2237775731167307</v>
       </c>
     </row>
     <row r="5">
